--- a/Data/android_config.xlsx
+++ b/Data/android_config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KnWorks\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/hyungsoo_kim_uipath_com/Documents/문서/UiPath/배민데이터추출/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_03760B5E3E4CAFB18FE082515FB051F752966427" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B510E2A-58FF-4C76-AEF5-8DBE9D2FEF1C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="8415"/>
+    <workbookView xWindow="255" yWindow="1605" windowWidth="33172" windowHeight="17783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -66,18 +67,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:10001/wd/hub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>platformVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.143.1:10001/wd/hub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,20 +426,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,9 +450,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -460,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -471,7 +472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -479,18 +480,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Data/android_config.xlsx
+++ b/Data/android_config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/hyungsoo_kim_uipath_com/Documents/문서/UiPath/배민데이터추출/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KnWorks\Documents\UiPath\배달의민족데이터추출\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_03760B5E3E4CAFB18FE082515FB051F752966427" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B510E2A-58FF-4C76-AEF5-8DBE9D2FEF1C}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1605" windowWidth="33172" windowHeight="17783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="1605" windowWidth="33165" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -59,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R3CR50AHL4T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>appiumUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,14 +66,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.143.1:10001/wd/hub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>http://localhost:10001/wd/hub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emulator-5554</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,20 +424,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,9 +448,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -461,18 +459,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -480,18 +478,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
